--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H2">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I2">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J2">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N2">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q2">
-        <v>68.69669782771645</v>
+        <v>66.47763370022</v>
       </c>
       <c r="R2">
-        <v>618.270280449448</v>
+        <v>598.2987033019799</v>
       </c>
       <c r="S2">
-        <v>0.02086684578056155</v>
+        <v>0.00928085785146927</v>
       </c>
       <c r="T2">
-        <v>0.02086684578056154</v>
+        <v>0.009280857851469272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H3">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I3">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J3">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q3">
-        <v>23.43088432939378</v>
+        <v>7.57181065868</v>
       </c>
       <c r="R3">
-        <v>210.877958964544</v>
+        <v>68.14629592812</v>
       </c>
       <c r="S3">
-        <v>0.007117207453403569</v>
+        <v>0.001057090851313145</v>
       </c>
       <c r="T3">
-        <v>0.007117207453403565</v>
+        <v>0.001057090851313145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>41.47959733333333</v>
+        <v>13.404345</v>
       </c>
       <c r="H4">
-        <v>124.438792</v>
+        <v>40.213035</v>
       </c>
       <c r="I4">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="J4">
-        <v>0.03392314276466685</v>
+        <v>0.01122005832922476</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q4">
-        <v>19.55234840727289</v>
+        <v>6.31844184757</v>
       </c>
       <c r="R4">
-        <v>175.971135665456</v>
+        <v>56.86597662813</v>
       </c>
       <c r="S4">
-        <v>0.005939089530701738</v>
+        <v>0.0008821096264423439</v>
       </c>
       <c r="T4">
-        <v>0.005939089530701737</v>
+        <v>0.000882109626442344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I5">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J5">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N5">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O5">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P5">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q5">
-        <v>1843.15172103047</v>
+        <v>5519.372576156503</v>
       </c>
       <c r="R5">
-        <v>16588.36548927423</v>
+        <v>49674.35318540852</v>
       </c>
       <c r="S5">
-        <v>0.5598633402929303</v>
+        <v>0.7705525822354403</v>
       </c>
       <c r="T5">
-        <v>0.5598633402929301</v>
+        <v>0.7705525822354404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I6">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J6">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1.694632</v>
       </c>
       <c r="O6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P6">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q6">
         <v>628.6572155956507</v>
@@ -818,10 +818,10 @@
         <v>5657.914940360855</v>
       </c>
       <c r="S6">
-        <v>0.1909566774165822</v>
+        <v>0.08776603393487509</v>
       </c>
       <c r="T6">
-        <v>0.1909566774165821</v>
+        <v>0.08776603393487509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3338.727783</v>
       </c>
       <c r="I7">
-        <v>0.9101674599595009</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="J7">
-        <v>0.9101674599595008</v>
+        <v>0.9315566574535661</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.414118</v>
       </c>
       <c r="O7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P7">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q7">
         <v>524.5950061155993</v>
@@ -880,10 +880,10 @@
         <v>4721.355055040393</v>
       </c>
       <c r="S7">
-        <v>0.1593474422499884</v>
+        <v>0.07323804128325069</v>
       </c>
       <c r="T7">
-        <v>0.1593474422499884</v>
+        <v>0.0732380412832507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>205.090015</v>
       </c>
       <c r="I8">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J8">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N8">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O8">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P8">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q8">
-        <v>113.2203757485595</v>
+        <v>339.0417781881578</v>
       </c>
       <c r="R8">
-        <v>1018.983381737035</v>
+        <v>3051.37600369342</v>
       </c>
       <c r="S8">
-        <v>0.03439105800816561</v>
+        <v>0.0473331912393755</v>
       </c>
       <c r="T8">
-        <v>0.0343910580081656</v>
+        <v>0.04733319123937551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>205.090015</v>
       </c>
       <c r="I9">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J9">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.694632</v>
       </c>
       <c r="O9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P9">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q9">
         <v>38.61690025549778</v>
@@ -1004,10 +1004,10 @@
         <v>347.55210229948</v>
       </c>
       <c r="S9">
-        <v>0.01173000926734044</v>
+        <v>0.00539125630662236</v>
       </c>
       <c r="T9">
-        <v>0.01173000926734044</v>
+        <v>0.00539125630662236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>205.090015</v>
       </c>
       <c r="I10">
-        <v>0.05590939727583234</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="J10">
-        <v>0.05590939727583233</v>
+        <v>0.05722328421720919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>1.414118</v>
       </c>
       <c r="O10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P10">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q10">
         <v>32.22460909241889</v>
@@ -1066,10 +1066,10 @@
         <v>290.02148183177</v>
       </c>
       <c r="S10">
-        <v>0.009788330000326284</v>
+        <v>0.00449883667121133</v>
       </c>
       <c r="T10">
-        <v>0.009788330000326282</v>
+        <v>0.00449883667121133</v>
       </c>
     </row>
   </sheetData>
